--- a/meta/To do.xlsx
+++ b/meta/To do.xlsx
@@ -5,27 +5,41 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyildiz\Dropbox\PC\Documents\GitHub\fume-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyildiz\Dropbox\PC\Documents\GitHub\wcde-shiny-2023\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B18995-8FDC-425B-B5E3-DEF8BF81EEDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95B9380-2B06-42E0-BC4A-D8C24FED5581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Faq" sheetId="3" r:id="rId1"/>
+    <sheet name="About details" sheetId="4" r:id="rId1"/>
+    <sheet name="Faq" sheetId="3" r:id="rId2"/>
+    <sheet name="faq questions" sheetId="7" r:id="rId3"/>
+    <sheet name="Scenario Definitions" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
   <si>
     <t>Notes</t>
   </si>
@@ -217,13 +231,597 @@
   </si>
   <si>
     <t>If we keep the question the answer needs to be updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>File: Intro_about.md</t>
+  </si>
+  <si>
+    <t>Change the 2018 report with the projection WP</t>
+  </si>
+  <si>
+    <t>Delete reconstruction part</t>
+  </si>
+  <si>
+    <t>Delete paragraph on difference with the report.</t>
+  </si>
+  <si>
+    <t>Change the link to JRC report</t>
+  </si>
+  <si>
+    <t>Please check if the new link works</t>
+  </si>
+  <si>
+    <t>It should read as in notes &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>File:about_details.md</t>
+  </si>
+  <si>
+    <t>It should read similar to &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Shall we add JRC report whenever older versions mentioned?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This website presents a set of different scenarios of future population and human capital trends in 200 countries of the world to 2100. The result of the population projections by levels of educational attainment were published in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. They provide an update of the projections (scope, coverage and quality) presented in  Lutz, Butz and KC in 2014, and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, based on the work of a large team of researchers at the Wittgenstein Centre for Demography and Global Human Capital and at other institutions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The present version (3.0) benefited from the partnership with the Joint Research Centre in the Centre of Expertise on Population and Migration (CEPAM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. On top of the assumptions about future trends in fertility, mortality, and education, the projections study the effect of several migration assumptions applied to the context of the set of Shared Socioeconomic Pathways (SSP) scenarios related to the Intergovernmental Panel on Climate Change (IPCC).</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete/edit the sentence on CEPAM?</t>
+  </si>
+  <si>
+    <t>Wittgenstein Centre for Demography and Global Human Capital, (2023). Wittgenstein Centre Data Explorer Version 3.0.</t>
+  </si>
+  <si>
+    <t>Citation- I changed it to&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Credits need to be updated</t>
+  </si>
+  <si>
+    <t>ADRI logo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About introduction </t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">More detailed information on how to use this web application. Further reading on the data from the global population projections by age, sex and education is provided in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Further features about the methodology can be found in Lutz, Butz, and K.C. (2014) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Scenario definitions</t>
+  </si>
+  <si>
+    <t>Mention the survey.</t>
+  </si>
+  <si>
+    <t>file: dimension.xlsx</t>
+  </si>
+  <si>
+    <t>Change the code for scenarios</t>
+  </si>
+  <si>
+    <t>Update scenatio definitions</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>sname</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>Medium (SSP2)</t>
+  </si>
+  <si>
+    <t>SSP2</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): This is the middle of the road scenario that can also be seen as the most likely path for each country. It combines for all countries medium fertility with medium mortality, medium migration, and the Global Education Trend (GET) education scenario.</t>
+  </si>
+  <si>
+    <t>Rapid Development (SSP1)</t>
+  </si>
+  <si>
+    <t>SSP1</t>
+  </si>
+  <si>
+    <t>Population Component of Rapid Development (SSP1): This scenario assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this SSP.</t>
+  </si>
+  <si>
+    <t>Stalled Development (SSP3)</t>
+  </si>
+  <si>
+    <t>SSP3</t>
+  </si>
+  <si>
+    <t>Population Component of Stalled Development (SSP3): This scenario portrays a world separated into regions characterised by extreme poverty, pockets of moderate wealth, and many countries struggling to maintain living standards for rapidly growing populations.  This is associated with low education, high mortality and high fertility. Due to the emphasis on security and barriers to international exchange, migration is assumed to be low for all countries.</t>
+  </si>
+  <si>
+    <t>Medium - Zero Migration (SSP2 - ZM)</t>
+  </si>
+  <si>
+    <t>SSP2ZM</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): This is the middle of the road scenario with Zero migration flows.</t>
+  </si>
+  <si>
+    <t>Medium - Double Migration (SSP2 - DM)</t>
+  </si>
+  <si>
+    <t>SSP2DM</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): This is the middle of the road scenario with Double migration flows.</t>
+  </si>
+  <si>
+    <t>Inequality (SSP4)</t>
+  </si>
+  <si>
+    <t>SSP4</t>
+  </si>
+  <si>
+    <t>Population Component of Inequality (SSP4): This scenario assumes increasing inequalities and stratification both across and within countries. It assumes high fertility and mortality scenarios in high fertility countries and low fertility and medium mortality scenarios in low fertility countries combined with medium migration scenario. In terms of education the SSP3 education transitions (CER) are decreased by 10% for levels up to lower secondary education, keeping the SSP2 (GET) education transitions for upper and post-secondary education.</t>
+  </si>
+  <si>
+    <t>Conventional development (SSP5)</t>
+  </si>
+  <si>
+    <t>SSP5</t>
+  </si>
+  <si>
+    <t>Population Component of Rapid Development (SSP1) combined with high migration scenario.</t>
+  </si>
+  <si>
+    <t>See Sheet Scenario definitions -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The updated definitions need to be pasted to dimension.xlsx file.</t>
+  </si>
+  <si>
+    <t>Update scenarios in dimension.xlsx</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>What is &lt;strong&gt;WIC&lt;/strong&gt; and what does it do?</t>
+  </si>
+  <si>
+    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
+  </si>
+  <si>
+    <t>Is there a &lt;strong&gt;registration&lt;/strong&gt; required for downloading content from the web site?</t>
+  </si>
+  <si>
+    <t>No registration is required for accessing, selecting, and downloading data.</t>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;data&lt;/strong&gt; can be found in the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
+    <t>What are the &lt;strong&gt;data sources&lt;/strong&gt; for the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2015, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>How &lt;strong&gt;reliable&lt;/strong&gt; is the provided data?</t>
+  </si>
+  <si>
+    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>Who is the &lt;strong&gt;copyright&lt;/strong&gt; holder and what are the regulations for redissemination? How should I &lt;strong&gt;cite&lt;/strong&gt; data from the website?</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
+  </si>
+  <si>
+    <t>Can I put a &lt;strong&gt;link to the WIC Data Explorer&lt;/strong&gt; on my website?</t>
+  </si>
+  <si>
+    <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
+  </si>
+  <si>
+    <t>I am &lt;strong&gt;not fluent in English&lt;/strong&gt;. Is the WIC Data Explorer also provided in other languages?</t>
+  </si>
+  <si>
+    <t>No, unfortunately the WIC Data Explorer is currently only offered in English. However, you can use translation tools like &lt;a href='http://translate.google.com/'&gt;Google Translator&lt;/a&gt; to translate the website into your preferred language.</t>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;browsers&lt;/strong&gt; are recommended to use WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>To get the best user experience we recommend to use &lt;a href='https://www.google.com/chrome/'&gt;Google Chrome&lt;/a&gt; or &lt;a href='https://www.mozilla.org/en-US/firefox/new/'&gt;Mozilla Firefox&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
+  </si>
+  <si>
+    <t>The reference time for WIC data is 1st of January of the year in question.</t>
+  </si>
+  <si>
+    <t>Why is there no data for the period &lt;strong&gt;before 2020&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>The reconstruction of population by levels of educational attainment from 1950 to 2020 will be made available in 2024.</t>
+  </si>
+  <si>
+    <t>I have a &lt;strong&gt;question&lt;/strong&gt; that is &lt;strong&gt;not in the FAQs&lt;/strong&gt;, whom should I contact?</t>
+  </si>
+  <si>
+    <t>If you have further questions or if you want to report a bug or request a feature, please send a message to &lt;a href='mailto:data@wittgensteincentre.org'&gt;data@wittgensteincentre.org&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>How do I &lt;strong&gt;select and deselect&lt;/strong&gt; data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
+  </si>
+  <si>
+    <t>What &lt;strong&gt;countries and regions&lt;/strong&gt; are included in the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
+  </si>
+  <si>
+    <t>For 15 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t>For which &lt;strong&gt;period&lt;/strong&gt; is data available in WIC Data Explorer?</t>
+  </si>
+  <si>
+    <r>
+      <t>Currently data are included from 2020 until 2100. The base year for the projections is 2020. Stock estimates (e.g. population size) refer to 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of January of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of January of the starting year and 31</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of December of the ending year of the period in question.</t>
+    </r>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;age categories&lt;/strong&gt; are available?</t>
+  </si>
+  <si>
+    <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
+  </si>
+  <si>
+    <t>Which &lt;strong&gt;education categories&lt;/strong&gt; are available?</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for this version?</t>
+  </si>
+  <si>
+    <t>In this version we decided to consider only 6 education categories.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;small countries&lt;/strong&gt; like Liechtenstein not in the database?</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database (the Seychelles is the only exception).</t>
+  </si>
+  <si>
+    <t>Why are there sometimes &lt;strong&gt;blank cells&lt;/strong&gt; for regions?</t>
+  </si>
+  <si>
+    <t>Blank cells occur when the indicator you selected is not available for a region, but only on the country level.</t>
+  </si>
+  <si>
+    <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
+  </si>
+  <si>
+    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com//publication//bilateral-migration-flow-sex//'&gt;Abel, 2022&lt;/a&gt;, from where you can obtain in- and outflow data from 1990 to 2020. </t>
+  </si>
+  <si>
+    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
+  </si>
+  <si>
+    <t>If you get this message, you have not selected a geography, a sex/age breakdown or a time horizon that is necessary for display. Please check your selection again.</t>
+  </si>
+  <si>
+    <t>What is &lt;strong&gt;new compared to Version 2&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>The Version 3 update is the most comprehensive since 2013, extending beyond updating the base year to 2020. Short-term assumptions (up to 2030) have been occasionally updated, while assumptions for 2050 and 2100 remain largely unchanged since they were based on comprehensive analyses and expert input. However, the trend component of the assumptions has been modified based on recent observations. Modeling methodology, fertility, migration, and education have also been modified. Education-specific fertility levels have been updated with new estimates, and education differentials in mortality are now country- and region-specific rather than being normalized to a single level by gender. Also, education-specific migration rates are implemented in the projection model for the first time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
+  </si>
+  <si>
+    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>How do I &lt;strong&gt;download data&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
+  </si>
+  <si>
+    <t>In what &lt;strong&gt;formats&lt;/strong&gt; is the data available for &lt;strong&gt;download&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>Currently data is only provided in the CSV format (comma-separated values). Data in this format can be processed in Microsoft Excel or most other spreadsheet applications.</t>
+  </si>
+  <si>
+    <t>Can I &lt;strong&gt;download an entire dataset&lt;/strong&gt; or even the whole database at once?</t>
+  </si>
+  <si>
+    <t>No, currently there is no function to download entire datasets or the entire database at once. You must make a selection first to get a download option. Nevertheless, if you require a large number of indicators and countries you can send us a &lt;a href='mailto:data@wittgensteincentre.org'&gt;message&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
+  </si>
+  <si>
+    <t>What software do I need to &lt;strong&gt;display a CSV&lt;/strong&gt; file?</t>
+  </si>
+  <si>
+    <t>To view a CSV file you need &lt;a href='http://office.microsoft.com/en-us/buy/'&gt;Microsoft Excel&lt;/a&gt;, &lt;a href='https://www.openoffice.org/download/index.html'&gt;Apache OpenOffice Calc&lt;/a&gt; (free), &lt;a href='http://www.libreoffice.org/download/libreoffice-fresh/'&gt;Libre Office Calc&lt;/a&gt; (free) or another spreadsheet application. If you open the file and the data does not appear in columns, your software does not recognize the comma as a separator. Try the following steps for a solution (Microsoft Excel): Select the first column &amp;rarr; Go to the data tab &amp;rarr; chose Text in Columns &amp;rarr; Follow the steps and select comma (,) as separator and quotation marks (") as a text qualifier. For more information available at Microsoft's support sites click &lt;a href='http://office.microsoft.com/en-us/excel-help/import-or-export-text-txt-or-csv-files-HP010099725.aspx'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What software do I need to &lt;strong&gt;display a PDF&lt;/strong&gt; file?</t>
+  </si>
+  <si>
+    <t>To view a PDF file you will need a PDF viewer like Adobe Reader. To download Adobe Reader for free, click &lt;a href='http://get.adobe.com/de/reader/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>What software do I need to &lt;strong&gt;display a PNG&lt;/strong&gt; file?</t>
+  </si>
+  <si>
+    <t>To view a PNG file you will need a viewer like IrfanView. To download IrfanView for free, click &lt;a href='http://www.irfanview.com/'&gt;here&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,16 +837,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -256,18 +882,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -305,6 +960,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -583,11 +1258,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385376B4-1D94-4D0B-8878-3EC7DF336C42}">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:A36">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Not done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Check"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59896FEC-1625-4AE0-8F78-18A5EE85D8E9}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,11 +1935,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Not done"</formula>
@@ -1041,4 +1949,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C41E981-0CA2-4A6E-8762-7547686835AB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="21" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ED0CE6-9507-4AF5-A1FF-3374C865004E}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>